--- a/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinksysuser\git\KeywordDriven_Framework\ExcelTestFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18495" windowHeight="7965"/>
   </bookViews>
@@ -11,7 +16,6 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -439,7 +443,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +452,7 @@
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinksysuser\git\KeywordDriven_Framework\ExcelTestFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18495" windowHeight="7965"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>S..No</t>
   </si>
@@ -66,9 +61,6 @@
     <t>Launch</t>
   </si>
   <si>
-    <t>Firefox</t>
-  </si>
-  <si>
     <t>GetPage</t>
   </si>
   <si>
@@ -81,20 +73,23 @@
     <t>submit</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>pqr</t>
-  </si>
-  <si>
     <t>http://newtours.demoaut.com/mercurysignon.php</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>mercury</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,7 +250,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,21 +427,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -455,7 +450,7 @@
     <col min="5" max="5" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -463,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -472,7 +467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -482,27 +477,28 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -511,14 +507,16 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -526,16 +524,18 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -551,44 +551,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -605,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -620,7 +620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -631,156 +631,156 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>

--- a/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18495" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>S..No</t>
   </si>
@@ -61,28 +61,46 @@
     <t>Launch</t>
   </si>
   <si>
+    <t>browser</t>
+  </si>
+  <si>
     <t>GetPage</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
+    <t>btn_signin</t>
+  </si>
+  <si>
     <t>Locator Name</t>
   </si>
   <si>
-    <t>submit</t>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>mercury</t>
   </si>
   <si>
     <t>http://newtours.demoaut.com/mercurysignon.php</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
-    <t>mercury</t>
+    <t>Reservation</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>selectItem</t>
+  </si>
+  <si>
+    <t>Departingfrom</t>
+  </si>
+  <si>
+    <t>London</t>
   </si>
 </sst>
 </file>
@@ -427,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -446,8 +464,8 @@
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -458,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -471,8 +489,12 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
@@ -484,30 +506,32 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -515,16 +539,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -532,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
@@ -541,6 +565,38 @@
         <v>10</v>
       </c>
       <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -555,7 +611,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -641,7 +697,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>

--- a/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinksysuser\git\KeywordDriven\KeywordDriven_Framework\ExcelTestFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
@@ -11,8 +16,8 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>S..No</t>
   </si>
@@ -61,9 +66,6 @@
     <t>Launch</t>
   </si>
   <si>
-    <t>browser</t>
-  </si>
-  <si>
     <t>GetPage</t>
   </si>
   <si>
@@ -101,13 +103,31 @@
   </si>
   <si>
     <t>London</t>
+  </si>
+  <si>
+    <t>Passanger Count</t>
+  </si>
+  <si>
+    <t>selectItemByIndex</t>
+  </si>
+  <si>
+    <t>Departing On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April </t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>selectItemByVisibleText</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,12 +186,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,206 +478,235 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -661,7 +723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -676,7 +738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -687,156 +749,156 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>

--- a/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinksysuser\git\KeywordDriven\KeywordDriven_Framework\ExcelTestFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
@@ -16,8 +11,8 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>S..No</t>
   </si>
@@ -111,23 +106,32 @@
     <t>selectItemByIndex</t>
   </si>
   <si>
-    <t>Departing On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April </t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>selectItemByVisibleText</t>
+    <t>close</t>
+  </si>
+  <si>
+    <t>closeallbrowsers</t>
+  </si>
+  <si>
+    <t>clearbrowsercache</t>
+  </si>
+  <si>
+    <t>refreshbrowser</t>
+  </si>
+  <si>
+    <t>goforward</t>
+  </si>
+  <si>
+    <t>goback</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,21 +482,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -501,7 +505,7 @@
     <col min="5" max="5" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -518,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -531,45 +535,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
@@ -578,7 +576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -586,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -618,35 +616,35 @@
         <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -659,9 +657,55 @@
       </c>
       <c r="E10" s="4"/>
     </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -669,44 +713,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -723,7 +767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -738,7 +782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -749,14 +793,14 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -765,140 +809,140 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>

--- a/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
@@ -16,6 +16,7 @@
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>S..No</t>
   </si>
@@ -126,7 +127,7 @@
     <t>Iterate</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -192,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -207,7 +208,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -502,7 +502,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
       <c r="A1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -548,7 +548,7 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -561,7 +561,7 @@
       <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -572,7 +572,7 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -589,7 +589,7 @@
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -606,7 +606,7 @@
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -623,7 +623,7 @@
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -638,7 +638,7 @@
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -655,7 +655,7 @@
       <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -672,7 +672,7 @@
       <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -683,7 +683,7 @@
       <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -694,7 +694,7 @@
       <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -705,7 +705,7 @@
       <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -716,7 +716,7 @@
       <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -726,11 +726,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -740,7 +738,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -761,13 +759,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>S..No</t>
   </si>
@@ -103,9 +102,6 @@
     <t>closeallbrowsers</t>
   </si>
   <si>
-    <t>clearbrowsercache</t>
-  </si>
-  <si>
     <t>refreshbrowser</t>
   </si>
   <si>
@@ -127,7 +123,10 @@
     <t>Iterate</t>
   </si>
   <si>
-    <t>2</t>
+    <t>clearbrowseractions</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -501,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,13 +509,13 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>33</v>
@@ -559,7 +558,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -573,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -590,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -607,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -681,7 +680,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -692,7 +691,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -703,7 +702,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -726,9 +725,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -739,13 +740,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,6 +768,50 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -774,6 +819,10 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
@@ -15,7 +15,7 @@
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>S..No</t>
   </si>
@@ -39,27 +39,12 @@
     <t>Page Name</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>EnterText</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
     <t>Launch</t>
   </si>
   <si>
     <t>GetPage</t>
   </si>
   <si>
-    <t>btn_signin</t>
-  </si>
-  <si>
     <t>Locator Name</t>
   </si>
   <si>
@@ -72,33 +57,6 @@
     <t>http://newtours.demoaut.com/mercurysignon.php</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Reservation</t>
-  </si>
-  <si>
-    <t>Continue</t>
-  </si>
-  <si>
-    <t>selectItem</t>
-  </si>
-  <si>
-    <t>Departingfrom</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Passanger Count</t>
-  </si>
-  <si>
-    <t>selectItemByIndex</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>closeallbrowsers</t>
   </si>
   <si>
@@ -126,7 +84,19 @@
     <t>clearbrowseractions</t>
   </si>
   <si>
-    <t>6</t>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>login.dologin</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>Registration.doRegistration</t>
+  </si>
+  <si>
+    <t>1-1</t>
   </si>
 </sst>
 </file>
@@ -150,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,31 +168,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -498,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,213 +496,154 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -728,91 +656,91 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
+      <c r="A1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
+      <c r="A2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
+      <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -820,9 +748,9 @@
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/TestScript.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinksysuser\git\KeywordDriven\KeywordDriven_Framework\ExcelTestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinksysuser\git\KeywordDriven\KeywordDriven\KeywordDriven_Framework\ExcelTestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>S..No</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>1-1</t>
+  </si>
+  <si>
+    <t>Reusable</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +509,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -576,9 +579,11 @@
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4"/>
       <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
@@ -590,9 +595,11 @@
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4"/>
       <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
